--- a/October'21/30.10.2021/Bank Statement October-2021.xlsx
+++ b/October'21/30.10.2021/Bank Statement October-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -374,7 +374,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -383,7 +383,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jakir</t>
@@ -398,7 +398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -407,7 +407,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cammerer Adapter+Service</t>
@@ -422,7 +422,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -431,7 +431,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Romjan+Sadek</t>
@@ -446,7 +446,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -455,7 +455,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Jakir</t>
@@ -1458,7 +1458,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1851,19 +1851,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -3807,7 +3794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3822,12 +3809,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3846,51 +3890,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3902,6 +3901,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4068,15 +4082,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4090,24 +4095,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4642,70 +4629,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="342" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
-      <c r="J1" s="348"/>
-      <c r="K1" s="348"/>
-      <c r="L1" s="348"/>
-      <c r="M1" s="348"/>
-      <c r="N1" s="348"/>
-      <c r="O1" s="348"/>
-      <c r="P1" s="348"/>
-      <c r="Q1" s="348"/>
-      <c r="R1" s="348"/>
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
+      <c r="P1" s="342"/>
+      <c r="Q1" s="342"/>
+      <c r="R1" s="342"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="349" t="s">
+      <c r="A2" s="343" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
-      <c r="H2" s="349"/>
-      <c r="I2" s="349"/>
-      <c r="J2" s="349"/>
-      <c r="K2" s="349"/>
-      <c r="L2" s="349"/>
-      <c r="M2" s="349"/>
-      <c r="N2" s="349"/>
-      <c r="O2" s="349"/>
-      <c r="P2" s="349"/>
-      <c r="Q2" s="349"/>
-      <c r="R2" s="349"/>
+      <c r="B2" s="343"/>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="343"/>
+      <c r="K2" s="343"/>
+      <c r="L2" s="343"/>
+      <c r="M2" s="343"/>
+      <c r="N2" s="343"/>
+      <c r="O2" s="343"/>
+      <c r="P2" s="343"/>
+      <c r="Q2" s="343"/>
+      <c r="R2" s="343"/>
     </row>
     <row r="3" spans="1:25" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="354" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
-      <c r="H3" s="357"/>
-      <c r="I3" s="357"/>
-      <c r="J3" s="357"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="357"/>
-      <c r="M3" s="357"/>
-      <c r="N3" s="357"/>
-      <c r="O3" s="357"/>
-      <c r="P3" s="357"/>
-      <c r="Q3" s="357"/>
-      <c r="R3" s="358"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="355"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="355"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="355"/>
+      <c r="O3" s="355"/>
+      <c r="P3" s="355"/>
+      <c r="Q3" s="355"/>
+      <c r="R3" s="356"/>
       <c r="T3" s="69"/>
       <c r="U3" s="70"/>
       <c r="V3" s="70"/>
@@ -4714,55 +4701,55 @@
       <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="350" t="s">
+      <c r="A4" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="352" t="s">
+      <c r="B4" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="352" t="s">
+      <c r="C4" s="346" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="346" t="s">
+      <c r="D4" s="348" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="346" t="s">
+      <c r="E4" s="348" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="346" t="s">
+      <c r="F4" s="348" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="346" t="s">
+      <c r="G4" s="348" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="346" t="s">
+      <c r="H4" s="348" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="346" t="s">
+      <c r="I4" s="348" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="346" t="s">
+      <c r="J4" s="348" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="359" t="s">
+      <c r="K4" s="357" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="338" t="s">
+      <c r="L4" s="350" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="340" t="s">
+      <c r="M4" s="359" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="342" t="s">
+      <c r="N4" s="361" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="344" t="s">
+      <c r="O4" s="363" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="338" t="s">
+      <c r="P4" s="350" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="354" t="s">
+      <c r="Q4" s="352" t="s">
         <v>193</v>
       </c>
       <c r="R4" s="193" t="s">
@@ -4775,23 +4762,23 @@
       <c r="X4" s="70"/>
     </row>
     <row r="5" spans="1:25" s="71" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="351"/>
-      <c r="B5" s="353"/>
-      <c r="C5" s="353"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="347"/>
-      <c r="H5" s="347"/>
-      <c r="I5" s="347"/>
-      <c r="J5" s="347"/>
-      <c r="K5" s="360"/>
-      <c r="L5" s="339"/>
-      <c r="M5" s="341"/>
-      <c r="N5" s="343"/>
-      <c r="O5" s="345"/>
-      <c r="P5" s="339"/>
-      <c r="Q5" s="355"/>
+      <c r="A5" s="345"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="349"/>
+      <c r="J5" s="349"/>
+      <c r="K5" s="358"/>
+      <c r="L5" s="351"/>
+      <c r="M5" s="360"/>
+      <c r="N5" s="362"/>
+      <c r="O5" s="364"/>
+      <c r="P5" s="351"/>
+      <c r="Q5" s="353"/>
       <c r="R5" s="194" t="s">
         <v>29</v>
       </c>
@@ -7851,6 +7838,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7867,10 +7858,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7897,12 +7884,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="361" t="s">
+      <c r="A1" s="365" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="363"/>
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="367"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -7917,12 +7904,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="364" t="s">
+      <c r="A2" s="368" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="368"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -9959,7 +9946,7 @@
   </sheetPr>
   <dimension ref="B1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F19"/>
     </sheetView>
   </sheetViews>
@@ -9985,13 +9972,13 @@
       <c r="H1" s="223"/>
     </row>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="373" t="s">
+      <c r="B2" s="382" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="375"/>
+      <c r="C2" s="383"/>
+      <c r="D2" s="383"/>
+      <c r="E2" s="383"/>
+      <c r="F2" s="384"/>
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
       <c r="J2" s="91"/>
@@ -10000,13 +9987,13 @@
       <c r="M2" s="335"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="376" t="s">
+      <c r="B3" s="385" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="377"/>
-      <c r="F3" s="378"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="387"/>
       <c r="H3" s="91"/>
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
@@ -10015,18 +10002,18 @@
       <c r="M3" s="337"/>
     </row>
     <row r="4" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="379" t="s">
+      <c r="B4" s="388" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="380"/>
-      <c r="D4" s="380"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="381"/>
-      <c r="K4" s="420" t="s">
+      <c r="C4" s="389"/>
+      <c r="D4" s="389"/>
+      <c r="E4" s="389"/>
+      <c r="F4" s="390"/>
+      <c r="K4" s="370" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="421"/>
-      <c r="M4" s="422"/>
+      <c r="L4" s="371"/>
+      <c r="M4" s="372"/>
     </row>
     <row r="5" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="253" t="s">
@@ -10060,7 +10047,7 @@
       <c r="C6" s="281">
         <v>300000</v>
       </c>
-      <c r="D6" s="371"/>
+      <c r="D6" s="380"/>
       <c r="E6" s="283" t="s">
         <v>0</v>
       </c>
@@ -10085,7 +10072,7 @@
       <c r="C7" s="282">
         <v>25000</v>
       </c>
-      <c r="D7" s="371"/>
+      <c r="D7" s="380"/>
       <c r="E7" s="283" t="s">
         <v>135</v>
       </c>
@@ -10110,7 +10097,7 @@
       <c r="C8" s="303">
         <v>2000000</v>
       </c>
-      <c r="D8" s="371"/>
+      <c r="D8" s="380"/>
       <c r="E8" s="285" t="s">
         <v>1</v>
       </c>
@@ -10135,7 +10122,7 @@
       <c r="C9" s="290">
         <v>2000000</v>
       </c>
-      <c r="D9" s="371"/>
+      <c r="D9" s="380"/>
       <c r="E9" s="286" t="s">
         <v>4</v>
       </c>
@@ -10160,7 +10147,7 @@
       <c r="C10" s="291">
         <v>50502</v>
       </c>
-      <c r="D10" s="371"/>
+      <c r="D10" s="380"/>
       <c r="E10" s="286" t="s">
         <v>2</v>
       </c>
@@ -10183,7 +10170,7 @@
         <v>205</v>
       </c>
       <c r="C11" s="291"/>
-      <c r="D11" s="371"/>
+      <c r="D11" s="380"/>
       <c r="E11" s="288" t="s">
         <v>176</v>
       </c>
@@ -10209,7 +10196,7 @@
         <f>C10+C11</f>
         <v>50502</v>
       </c>
-      <c r="D12" s="371"/>
+      <c r="D12" s="380"/>
       <c r="E12" s="287" t="s">
         <v>7</v>
       </c>
@@ -10234,7 +10221,7 @@
       <c r="C13" s="291">
         <v>65652.709999999992</v>
       </c>
-      <c r="D13" s="371"/>
+      <c r="D13" s="380"/>
       <c r="E13" s="287" t="s">
         <v>177</v>
       </c>
@@ -10257,7 +10244,7 @@
         <v>208</v>
       </c>
       <c r="C14" s="293"/>
-      <c r="D14" s="371"/>
+      <c r="D14" s="380"/>
       <c r="E14" s="286" t="s">
         <v>5</v>
       </c>
@@ -10281,7 +10268,7 @@
         <f>C13+C14</f>
         <v>65652.709999999992</v>
       </c>
-      <c r="D15" s="371"/>
+      <c r="D15" s="380"/>
       <c r="E15" s="286" t="s">
         <v>178</v>
       </c>
@@ -10313,7 +10300,7 @@
         <f>C15-C12</f>
         <v>15150.709999999992</v>
       </c>
-      <c r="D16" s="371"/>
+      <c r="D16" s="380"/>
       <c r="E16" s="288" t="s">
         <v>185</v>
       </c>
@@ -10334,7 +10321,7 @@
       <c r="C17" s="296">
         <v>0</v>
       </c>
-      <c r="D17" s="371"/>
+      <c r="D17" s="380"/>
       <c r="E17" s="289"/>
       <c r="F17" s="300"/>
       <c r="G17" s="19"/>
@@ -10356,7 +10343,7 @@
         <f>C9+C13-C12+C17</f>
         <v>2015150.71</v>
       </c>
-      <c r="D18" s="372"/>
+      <c r="D18" s="381"/>
       <c r="E18" s="309" t="s">
         <v>3</v>
       </c>
@@ -10376,13 +10363,13 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="368" t="s">
+      <c r="B19" s="377" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="369"/>
-      <c r="D19" s="369"/>
-      <c r="E19" s="369"/>
-      <c r="F19" s="370"/>
+      <c r="C19" s="378"/>
+      <c r="D19" s="378"/>
+      <c r="E19" s="378"/>
+      <c r="F19" s="379"/>
       <c r="G19" s="19"/>
       <c r="K19" s="319" t="s">
         <v>186</v>
@@ -10395,11 +10382,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="365"/>
-      <c r="C20" s="366"/>
-      <c r="D20" s="366"/>
-      <c r="E20" s="366"/>
-      <c r="F20" s="367"/>
+      <c r="B20" s="374"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="375"/>
+      <c r="F20" s="376"/>
       <c r="G20" s="20"/>
       <c r="K20" s="319" t="s">
         <v>187</v>
@@ -10627,64 +10614,64 @@
       <c r="M37" s="319"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K38" s="432" t="s">
+      <c r="K38" s="373" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="432"/>
-      <c r="M38" s="433">
+      <c r="L38" s="373"/>
+      <c r="M38" s="341">
         <f>SUM(M6:M37)</f>
         <v>387349</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K39" s="429"/>
-      <c r="L39" s="430"/>
-      <c r="M39" s="429"/>
+      <c r="K39" s="339"/>
+      <c r="L39" s="340"/>
+      <c r="M39" s="339"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K40" s="428"/>
-      <c r="L40" s="428"/>
-      <c r="M40" s="428"/>
+      <c r="K40" s="338"/>
+      <c r="L40" s="338"/>
+      <c r="M40" s="338"/>
     </row>
     <row r="41" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K41" s="428"/>
-      <c r="L41" s="428"/>
-      <c r="M41" s="428"/>
+      <c r="K41" s="338"/>
+      <c r="L41" s="338"/>
+      <c r="M41" s="338"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K42" s="428"/>
-      <c r="L42" s="428"/>
-      <c r="M42" s="428"/>
+      <c r="K42" s="338"/>
+      <c r="L42" s="338"/>
+      <c r="M42" s="338"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K43" s="428"/>
-      <c r="L43" s="428"/>
-      <c r="M43" s="428"/>
+      <c r="K43" s="338"/>
+      <c r="L43" s="338"/>
+      <c r="M43" s="338"/>
     </row>
     <row r="44" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K44" s="428"/>
-      <c r="L44" s="428"/>
-      <c r="M44" s="428"/>
+      <c r="K44" s="338"/>
+      <c r="L44" s="338"/>
+      <c r="M44" s="338"/>
     </row>
     <row r="45" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K45" s="428"/>
-      <c r="L45" s="428"/>
-      <c r="M45" s="428"/>
+      <c r="K45" s="338"/>
+      <c r="L45" s="338"/>
+      <c r="M45" s="338"/>
     </row>
     <row r="46" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K46" s="428"/>
-      <c r="L46" s="428"/>
-      <c r="M46" s="428"/>
+      <c r="K46" s="338"/>
+      <c r="L46" s="338"/>
+      <c r="M46" s="338"/>
     </row>
     <row r="47" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K47" s="428"/>
-      <c r="L47" s="428"/>
-      <c r="M47" s="428"/>
+      <c r="K47" s="338"/>
+      <c r="L47" s="338"/>
+      <c r="M47" s="338"/>
     </row>
     <row r="48" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K48" s="431"/>
-      <c r="L48" s="431"/>
-      <c r="M48" s="428"/>
+      <c r="K48" s="369"/>
+      <c r="L48" s="369"/>
+      <c r="M48" s="338"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
@@ -11694,15 +11681,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="D6:D18"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11717,9 +11704,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11748,119 +11735,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="397" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
-      <c r="N1" s="388"/>
-      <c r="O1" s="388"/>
-      <c r="P1" s="388"/>
-      <c r="Q1" s="388"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="F1" s="397"/>
+      <c r="G1" s="397"/>
+      <c r="H1" s="397"/>
+      <c r="I1" s="397"/>
+      <c r="J1" s="397"/>
+      <c r="K1" s="397"/>
+      <c r="L1" s="397"/>
+      <c r="M1" s="397"/>
+      <c r="N1" s="397"/>
+      <c r="O1" s="397"/>
+      <c r="P1" s="397"/>
+      <c r="Q1" s="397"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
-      <c r="N2" s="388"/>
-      <c r="O2" s="388"/>
-      <c r="P2" s="388"/>
-      <c r="Q2" s="388"/>
+      <c r="A2" s="397"/>
+      <c r="B2" s="397"/>
+      <c r="C2" s="397"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
+      <c r="F2" s="397"/>
+      <c r="G2" s="397"/>
+      <c r="H2" s="397"/>
+      <c r="I2" s="397"/>
+      <c r="J2" s="397"/>
+      <c r="K2" s="397"/>
+      <c r="L2" s="397"/>
+      <c r="M2" s="397"/>
+      <c r="N2" s="397"/>
+      <c r="O2" s="397"/>
+      <c r="P2" s="397"/>
+      <c r="Q2" s="397"/>
     </row>
     <row r="3" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="398" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
-      <c r="Q3" s="389"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="398"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
+      <c r="O3" s="398"/>
+      <c r="P3" s="398"/>
+      <c r="Q3" s="398"/>
     </row>
     <row r="4" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="399" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="390"/>
-      <c r="C4" s="390"/>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="390"/>
-      <c r="G4" s="390"/>
-      <c r="H4" s="390"/>
-      <c r="I4" s="390"/>
-      <c r="J4" s="390"/>
-      <c r="K4" s="390"/>
-      <c r="L4" s="390"/>
-      <c r="M4" s="390"/>
-      <c r="N4" s="390"/>
-      <c r="O4" s="390"/>
-      <c r="P4" s="390"/>
-      <c r="Q4" s="390"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
+      <c r="I4" s="399"/>
+      <c r="J4" s="399"/>
+      <c r="K4" s="399"/>
+      <c r="L4" s="399"/>
+      <c r="M4" s="399"/>
+      <c r="N4" s="399"/>
+      <c r="O4" s="399"/>
+      <c r="P4" s="399"/>
+      <c r="Q4" s="399"/>
       <c r="U4" s="97">
         <v>2455</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="97" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="395" t="s">
+      <c r="A5" s="404" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="396"/>
-      <c r="C5" s="397"/>
+      <c r="B5" s="405"/>
+      <c r="C5" s="406"/>
       <c r="D5" s="235" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="235"/>
-      <c r="F5" s="391" t="s">
+      <c r="F5" s="400" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="392"/>
-      <c r="H5" s="392"/>
-      <c r="I5" s="392"/>
-      <c r="J5" s="392"/>
-      <c r="K5" s="392"/>
-      <c r="L5" s="392"/>
-      <c r="M5" s="392"/>
-      <c r="N5" s="392"/>
-      <c r="O5" s="392"/>
-      <c r="P5" s="392"/>
-      <c r="Q5" s="393"/>
-      <c r="T5" s="385" t="s">
+      <c r="G5" s="401"/>
+      <c r="H5" s="401"/>
+      <c r="I5" s="401"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="401"/>
+      <c r="N5" s="401"/>
+      <c r="O5" s="401"/>
+      <c r="P5" s="401"/>
+      <c r="Q5" s="402"/>
+      <c r="T5" s="394" t="s">
         <v>80</v>
       </c>
-      <c r="U5" s="386"/>
-      <c r="V5" s="387"/>
+      <c r="U5" s="395"/>
+      <c r="V5" s="396"/>
     </row>
     <row r="6" spans="1:22" s="229" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="247" t="s">
@@ -12386,11 +12373,11 @@
       <c r="O19" s="115"/>
       <c r="P19" s="115"/>
       <c r="Q19" s="120"/>
-      <c r="T19" s="394" t="s">
+      <c r="T19" s="403" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="394"/>
-      <c r="V19" s="394"/>
+      <c r="U19" s="403"/>
+      <c r="V19" s="403"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="102">
@@ -12679,22 +12666,18 @@
       <c r="L28" s="113"/>
       <c r="M28" s="114"/>
       <c r="N28" s="115">
-        <v>20</v>
-      </c>
-      <c r="O28" s="115">
-        <v>1</v>
-      </c>
-      <c r="P28" s="115">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
       <c r="Q28" s="120"/>
     </row>
     <row r="29" spans="1:22" s="104" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="382" t="s">
+      <c r="A29" s="391" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="383"/>
-      <c r="C29" s="384"/>
+      <c r="B29" s="392"/>
+      <c r="C29" s="393"/>
       <c r="D29" s="129">
         <f t="shared" ref="D29:P29" si="1">SUM(D7:D28)</f>
         <v>0</v>
@@ -12737,15 +12720,15 @@
       </c>
       <c r="N29" s="129">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="O29" s="129">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P29" s="129">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="130"/>
     </row>
@@ -13433,61 +13416,61 @@
   <sheetData>
     <row r="1" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="408" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="401"/>
-      <c r="Q2" s="401"/>
-      <c r="R2" s="401"/>
-      <c r="S2" s="401"/>
-      <c r="T2" s="401"/>
-      <c r="U2" s="401"/>
-      <c r="V2" s="401"/>
-      <c r="W2" s="401"/>
-      <c r="X2" s="402"/>
+      <c r="C2" s="409"/>
+      <c r="D2" s="409"/>
+      <c r="E2" s="409"/>
+      <c r="F2" s="409"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="410"/>
+      <c r="K2" s="410"/>
+      <c r="L2" s="410"/>
+      <c r="M2" s="410"/>
+      <c r="N2" s="410"/>
+      <c r="O2" s="410"/>
+      <c r="P2" s="410"/>
+      <c r="Q2" s="410"/>
+      <c r="R2" s="410"/>
+      <c r="S2" s="410"/>
+      <c r="T2" s="410"/>
+      <c r="U2" s="410"/>
+      <c r="V2" s="410"/>
+      <c r="W2" s="410"/>
+      <c r="X2" s="411"/>
       <c r="Y2" s="138"/>
     </row>
     <row r="3" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="405" t="s">
+      <c r="B3" s="414" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="406"/>
-      <c r="D3" s="406"/>
-      <c r="E3" s="406"/>
-      <c r="F3" s="407"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="403" t="s">
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
+      <c r="F3" s="416"/>
+      <c r="G3" s="418"/>
+      <c r="H3" s="418"/>
+      <c r="I3" s="418"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="403"/>
-      <c r="N3" s="403"/>
-      <c r="O3" s="403"/>
-      <c r="P3" s="403"/>
-      <c r="Q3" s="403"/>
-      <c r="R3" s="403"/>
-      <c r="S3" s="403"/>
-      <c r="T3" s="403"/>
-      <c r="U3" s="403"/>
-      <c r="V3" s="403"/>
-      <c r="W3" s="403"/>
-      <c r="X3" s="404"/>
+      <c r="M3" s="412"/>
+      <c r="N3" s="412"/>
+      <c r="O3" s="412"/>
+      <c r="P3" s="412"/>
+      <c r="Q3" s="412"/>
+      <c r="R3" s="412"/>
+      <c r="S3" s="412"/>
+      <c r="T3" s="412"/>
+      <c r="U3" s="412"/>
+      <c r="V3" s="412"/>
+      <c r="W3" s="412"/>
+      <c r="X3" s="413"/>
       <c r="Y3" s="139"/>
       <c r="Z3" s="139"/>
       <c r="AA3" s="139"/>
@@ -13498,42 +13481,42 @@
     </row>
     <row r="4" spans="2:31" s="97" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="226"/>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="407" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398" t="s">
+      <c r="D4" s="407"/>
+      <c r="E4" s="407"/>
+      <c r="F4" s="407" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="398" t="s">
+      <c r="G4" s="407"/>
+      <c r="H4" s="407"/>
+      <c r="I4" s="407" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="398"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="398" t="s">
+      <c r="J4" s="407"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="398"/>
-      <c r="N4" s="398"/>
-      <c r="O4" s="398" t="s">
+      <c r="M4" s="407"/>
+      <c r="N4" s="407"/>
+      <c r="O4" s="407" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="398"/>
-      <c r="Q4" s="398"/>
-      <c r="R4" s="398" t="s">
+      <c r="P4" s="407"/>
+      <c r="Q4" s="407"/>
+      <c r="R4" s="407" t="s">
         <v>88</v>
       </c>
-      <c r="S4" s="398"/>
-      <c r="T4" s="398"/>
-      <c r="U4" s="398" t="s">
+      <c r="S4" s="407"/>
+      <c r="T4" s="407"/>
+      <c r="U4" s="407" t="s">
         <v>87</v>
       </c>
-      <c r="V4" s="398"/>
-      <c r="W4" s="398"/>
-      <c r="X4" s="408" t="s">
+      <c r="V4" s="407"/>
+      <c r="W4" s="407"/>
+      <c r="X4" s="417" t="s">
         <v>89</v>
       </c>
       <c r="Y4" s="139"/>
@@ -13611,7 +13594,7 @@
       <c r="W5" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="408"/>
+      <c r="X5" s="417"/>
       <c r="Y5" s="139"/>
       <c r="Z5" s="139"/>
       <c r="AA5" s="139"/>
@@ -14729,14 +14712,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="397" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="F1" s="397"/>
       <c r="G1" s="188"/>
       <c r="H1" s="188"/>
       <c r="I1" s="188"/>
@@ -14750,12 +14733,12 @@
       <c r="Q1" s="188"/>
     </row>
     <row r="2" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
+      <c r="A2" s="397"/>
+      <c r="B2" s="397"/>
+      <c r="C2" s="397"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
+      <c r="F2" s="397"/>
       <c r="G2" s="188"/>
       <c r="H2" s="188"/>
       <c r="I2" s="188"/>
@@ -14769,14 +14752,14 @@
       <c r="Q2" s="188"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="398" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
       <c r="G3" s="189"/>
       <c r="H3" s="189"/>
       <c r="I3" s="189"/>
@@ -14790,14 +14773,14 @@
       <c r="Q3" s="189"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="399" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="390"/>
-      <c r="C4" s="390"/>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="390"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
       <c r="G4" s="187"/>
       <c r="H4" s="187"/>
       <c r="I4" s="187"/>
@@ -14814,17 +14797,17 @@
       <c r="A5" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="415" t="s">
+      <c r="B5" s="424" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="416"/>
+      <c r="C5" s="425"/>
       <c r="D5" s="216" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="410" t="s">
+      <c r="E5" s="419" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="411"/>
+      <c r="F5" s="420"/>
       <c r="G5" s="187"/>
       <c r="H5" s="187"/>
       <c r="I5" s="187"/>
@@ -14841,17 +14824,17 @@
       <c r="A6" s="217" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="412" t="s">
+      <c r="B6" s="421" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="412"/>
+      <c r="C6" s="421"/>
       <c r="D6" s="218" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="413" t="s">
+      <c r="E6" s="422" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="414"/>
+      <c r="F6" s="423"/>
       <c r="G6" s="187"/>
       <c r="H6" s="187"/>
       <c r="I6" s="187"/>
@@ -15639,94 +15622,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="397" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="388"/>
-      <c r="H1" s="388"/>
-      <c r="I1" s="388"/>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
-      <c r="M1" s="388"/>
-      <c r="N1" s="388"/>
-      <c r="O1" s="388"/>
-      <c r="P1" s="388"/>
-      <c r="Q1" s="388"/>
-      <c r="R1" s="388"/>
-      <c r="S1" s="388"/>
+      <c r="B1" s="397"/>
+      <c r="C1" s="397"/>
+      <c r="D1" s="397"/>
+      <c r="E1" s="397"/>
+      <c r="F1" s="397"/>
+      <c r="G1" s="397"/>
+      <c r="H1" s="397"/>
+      <c r="I1" s="397"/>
+      <c r="J1" s="397"/>
+      <c r="K1" s="397"/>
+      <c r="L1" s="397"/>
+      <c r="M1" s="397"/>
+      <c r="N1" s="397"/>
+      <c r="O1" s="397"/>
+      <c r="P1" s="397"/>
+      <c r="Q1" s="397"/>
+      <c r="R1" s="397"/>
+      <c r="S1" s="397"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
-      <c r="N2" s="388"/>
-      <c r="O2" s="388"/>
-      <c r="P2" s="388"/>
-      <c r="Q2" s="388"/>
-      <c r="R2" s="388"/>
-      <c r="S2" s="388"/>
+      <c r="A2" s="397"/>
+      <c r="B2" s="397"/>
+      <c r="C2" s="397"/>
+      <c r="D2" s="397"/>
+      <c r="E2" s="397"/>
+      <c r="F2" s="397"/>
+      <c r="G2" s="397"/>
+      <c r="H2" s="397"/>
+      <c r="I2" s="397"/>
+      <c r="J2" s="397"/>
+      <c r="K2" s="397"/>
+      <c r="L2" s="397"/>
+      <c r="M2" s="397"/>
+      <c r="N2" s="397"/>
+      <c r="O2" s="397"/>
+      <c r="P2" s="397"/>
+      <c r="Q2" s="397"/>
+      <c r="R2" s="397"/>
+      <c r="S2" s="397"/>
     </row>
     <row r="3" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="398" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
-      <c r="Q3" s="389"/>
-      <c r="R3" s="389"/>
-      <c r="S3" s="389"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="398"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
+      <c r="O3" s="398"/>
+      <c r="P3" s="398"/>
+      <c r="Q3" s="398"/>
+      <c r="R3" s="398"/>
+      <c r="S3" s="398"/>
     </row>
     <row r="4" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="399" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="390"/>
-      <c r="C4" s="390"/>
-      <c r="D4" s="390"/>
-      <c r="E4" s="390"/>
-      <c r="F4" s="390"/>
-      <c r="G4" s="390"/>
-      <c r="H4" s="390"/>
-      <c r="I4" s="390"/>
-      <c r="J4" s="390"/>
-      <c r="K4" s="390"/>
-      <c r="L4" s="390"/>
-      <c r="M4" s="390"/>
-      <c r="N4" s="390"/>
-      <c r="O4" s="390"/>
-      <c r="P4" s="390"/>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="390"/>
-      <c r="S4" s="390"/>
+      <c r="B4" s="399"/>
+      <c r="C4" s="399"/>
+      <c r="D4" s="399"/>
+      <c r="E4" s="399"/>
+      <c r="F4" s="399"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="399"/>
+      <c r="I4" s="399"/>
+      <c r="J4" s="399"/>
+      <c r="K4" s="399"/>
+      <c r="L4" s="399"/>
+      <c r="M4" s="399"/>
+      <c r="N4" s="399"/>
+      <c r="O4" s="399"/>
+      <c r="P4" s="399"/>
+      <c r="Q4" s="399"/>
+      <c r="R4" s="399"/>
+      <c r="S4" s="399"/>
     </row>
     <row r="5" spans="1:40" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="262"/>
@@ -15750,9 +15733,9 @@
       <c r="S5" s="260"/>
       <c r="T5" s="263"/>
       <c r="U5" s="263"/>
-      <c r="V5" s="390"/>
-      <c r="W5" s="390"/>
-      <c r="X5" s="390"/>
+      <c r="V5" s="399"/>
+      <c r="W5" s="399"/>
+      <c r="X5" s="399"/>
       <c r="Y5" s="263"/>
       <c r="Z5" s="263"/>
       <c r="AA5" s="263"/>
@@ -16042,9 +16025,9 @@
       <c r="S10" s="258"/>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
-      <c r="V10" s="417"/>
-      <c r="W10" s="417"/>
-      <c r="X10" s="417"/>
+      <c r="V10" s="426"/>
+      <c r="W10" s="426"/>
+      <c r="X10" s="426"/>
       <c r="Y10" s="47"/>
       <c r="Z10" s="47"/>
       <c r="AA10" s="47"/>
@@ -16209,9 +16192,9 @@
       <c r="S13" s="258"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
-      <c r="V13" s="417"/>
-      <c r="W13" s="417"/>
-      <c r="X13" s="417"/>
+      <c r="V13" s="426"/>
+      <c r="W13" s="426"/>
+      <c r="X13" s="426"/>
       <c r="Y13" s="47"/>
       <c r="Z13" s="47"/>
       <c r="AA13" s="47"/>
@@ -16899,9 +16882,9 @@
       <c r="AN27" s="47"/>
     </row>
     <row r="28" spans="1:40" s="104" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="418"/>
-      <c r="B28" s="418"/>
-      <c r="C28" s="418"/>
+      <c r="A28" s="427"/>
+      <c r="B28" s="427"/>
+      <c r="C28" s="427"/>
       <c r="D28" s="273"/>
       <c r="E28" s="273"/>
       <c r="F28" s="273"/>
@@ -18318,17 +18301,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="429" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="425"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="431"/>
       <c r="D1" s="335"/>
-      <c r="F1" s="420" t="s">
+      <c r="F1" s="370" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="421"/>
-      <c r="H1" s="422"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="372"/>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="328" t="s">
@@ -18828,10 +18811,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="426" t="s">
+      <c r="A26" s="432" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="427"/>
+      <c r="B26" s="433"/>
       <c r="C26" s="336">
         <f>SUM(C3:C25)</f>
         <v>384397</v>
@@ -18920,11 +18903,11 @@
       <c r="A35" s="315"/>
       <c r="B35" s="316"/>
       <c r="C35" s="315"/>
-      <c r="F35" s="432" t="s">
+      <c r="F35" s="373" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="432"/>
-      <c r="H35" s="433">
+      <c r="G35" s="373"/>
+      <c r="H35" s="341">
         <f>SUM(H3:H34)</f>
         <v>383147</v>
       </c>
@@ -18934,9 +18917,9 @@
       <c r="B36" s="316"/>
       <c r="C36" s="315"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="429"/>
-      <c r="G36" s="430"/>
-      <c r="H36" s="429"/>
+      <c r="F36" s="339"/>
+      <c r="G36" s="340"/>
+      <c r="H36" s="339"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -18944,9 +18927,9 @@
       <c r="B37" s="317"/>
       <c r="C37" s="315"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="429"/>
-      <c r="G37" s="430"/>
-      <c r="H37" s="429"/>
+      <c r="F37" s="339"/>
+      <c r="G37" s="340"/>
+      <c r="H37" s="339"/>
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -18954,9 +18937,9 @@
       <c r="B38" s="94"/>
       <c r="C38" s="94"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="429"/>
-      <c r="G38" s="430"/>
-      <c r="H38" s="429"/>
+      <c r="F38" s="339"/>
+      <c r="G38" s="340"/>
+      <c r="H38" s="339"/>
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -18964,9 +18947,9 @@
       <c r="B39" s="94"/>
       <c r="C39" s="94"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="428"/>
-      <c r="G39" s="428"/>
-      <c r="H39" s="428"/>
+      <c r="F39" s="338"/>
+      <c r="G39" s="338"/>
+      <c r="H39" s="338"/>
       <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -18974,9 +18957,9 @@
       <c r="B40" s="94"/>
       <c r="C40" s="94"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="428"/>
-      <c r="G40" s="428"/>
-      <c r="H40" s="428"/>
+      <c r="F40" s="338"/>
+      <c r="G40" s="338"/>
+      <c r="H40" s="338"/>
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -18984,9 +18967,9 @@
       <c r="B41" s="94"/>
       <c r="C41" s="94"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="428"/>
-      <c r="G41" s="428"/>
-      <c r="H41" s="428"/>
+      <c r="F41" s="338"/>
+      <c r="G41" s="338"/>
+      <c r="H41" s="338"/>
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -18994,9 +18977,9 @@
       <c r="B42" s="94"/>
       <c r="C42" s="94"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="428"/>
-      <c r="G42" s="428"/>
-      <c r="H42" s="428"/>
+      <c r="F42" s="338"/>
+      <c r="G42" s="338"/>
+      <c r="H42" s="338"/>
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -19004,9 +18987,9 @@
       <c r="B43" s="94"/>
       <c r="C43" s="94"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="428"/>
-      <c r="G43" s="428"/>
-      <c r="H43" s="428"/>
+      <c r="F43" s="338"/>
+      <c r="G43" s="338"/>
+      <c r="H43" s="338"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -19014,9 +18997,9 @@
       <c r="B44" s="94"/>
       <c r="C44" s="94"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="428"/>
-      <c r="G44" s="428"/>
-      <c r="H44" s="428"/>
+      <c r="F44" s="338"/>
+      <c r="G44" s="338"/>
+      <c r="H44" s="338"/>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -19024,26 +19007,26 @@
       <c r="B45" s="94"/>
       <c r="C45" s="94"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="428"/>
-      <c r="G45" s="428"/>
-      <c r="H45" s="428"/>
+      <c r="F45" s="338"/>
+      <c r="G45" s="338"/>
+      <c r="H45" s="338"/>
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="419"/>
-      <c r="B46" s="419"/>
+      <c r="A46" s="428"/>
+      <c r="B46" s="428"/>
       <c r="C46" s="8"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="428"/>
-      <c r="G46" s="428"/>
-      <c r="H46" s="428"/>
+      <c r="F46" s="338"/>
+      <c r="G46" s="338"/>
+      <c r="H46" s="338"/>
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
-      <c r="F47" s="431"/>
-      <c r="G47" s="431"/>
-      <c r="H47" s="428"/>
+      <c r="F47" s="369"/>
+      <c r="G47" s="369"/>
+      <c r="H47" s="338"/>
       <c r="I47" s="9"/>
     </row>
   </sheetData>
